--- a/biology/Biochimie/Tyrosinase/Tyrosinase.xlsx
+++ b/biology/Biochimie/Tyrosinase/Tyrosinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tyrosinase (ou catéchol oxydase ou monophénol monooxygénase) est une oxydoréductase qui catalyse l'oxydation des phénols, comme la tyrosine :
@@ -496,8 +508,8 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   dopaquinone + H2O
-Cette enzyme intervient dans deux réactions distinctes de biosynthèse de la mélanine : l'hydroxylation d'un monophénol et la conversion d'un o-diphénol en o-quinone, laquelle conduisant à la mélanine[2]. Elle est très répandue chez les plantes, les animaux et les mycètes. Chez l'homme, elle est codée par le gène TYR, situé sur le chromosome 11[3], et exprimée dans les mélanosomes, organite des mélanocytes. Certaines mutations du gène TYR sont responsables de la forme 1 de l'albinisme oculocutané (OCA1), maladie génétique rare dont l'incidence globale est estimée à environ un cas pour 17 000 personnes.
-Elle comprend un cation de cuivre Cu2+ comme cofacteur. Elle catalyse la production de mélanine et d'autres pigments par oxydation à partir de la tyrosine, comme lorsqu'une pomme de terre pelée ou découpée en tranches noircit à l'air libre[4].
+Cette enzyme intervient dans deux réactions distinctes de biosynthèse de la mélanine : l'hydroxylation d'un monophénol et la conversion d'un o-diphénol en o-quinone, laquelle conduisant à la mélanine. Elle est très répandue chez les plantes, les animaux et les mycètes. Chez l'homme, elle est codée par le gène TYR, situé sur le chromosome 11, et exprimée dans les mélanosomes, organite des mélanocytes. Certaines mutations du gène TYR sont responsables de la forme 1 de l'albinisme oculocutané (OCA1), maladie génétique rare dont l'incidence globale est estimée à environ un cas pour 17 000 personnes.
+Elle comprend un cation de cuivre Cu2+ comme cofacteur. Elle catalyse la production de mélanine et d'autres pigments par oxydation à partir de la tyrosine, comme lorsqu'une pomme de terre pelée ou découpée en tranches noircit à l'air libre.
 </t>
         </is>
       </c>
@@ -526,7 +538,9 @@
           <t>Réactions catalysées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La tyrosinase peut catalyser deux types de transformation successives :
 l'oxydation, en présence d'oxygène, d'un monophénol en catéchol : on parle alors d'une activité crésolase ;
